--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H2">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.316206285600684</v>
+        <v>0.8128656666666666</v>
       </c>
       <c r="N2">
-        <v>0.316206285600684</v>
+        <v>2.438597</v>
       </c>
       <c r="O2">
-        <v>0.06816139482973536</v>
+        <v>0.1423818161159879</v>
       </c>
       <c r="P2">
-        <v>0.06816139482973536</v>
+        <v>0.1423818161159879</v>
       </c>
       <c r="Q2">
-        <v>24.49436032871634</v>
+        <v>86.87793604178809</v>
       </c>
       <c r="R2">
-        <v>24.49436032871634</v>
+        <v>781.9014243760929</v>
       </c>
       <c r="S2">
-        <v>0.008088528065758546</v>
+        <v>0.021481832342888</v>
       </c>
       <c r="T2">
-        <v>0.008088528065758546</v>
+        <v>0.021481832342888</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H3">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.928651658055331</v>
+        <v>0.9765046666666667</v>
       </c>
       <c r="N3">
-        <v>0.928651658055331</v>
+        <v>2.929514</v>
       </c>
       <c r="O3">
-        <v>0.2001800571539964</v>
+        <v>0.171044876893235</v>
       </c>
       <c r="P3">
-        <v>0.2001800571539964</v>
+        <v>0.171044876893235</v>
       </c>
       <c r="Q3">
-        <v>71.93635727087504</v>
+        <v>104.3674415762518</v>
       </c>
       <c r="R3">
-        <v>71.93635727087504</v>
+        <v>939.306974186266</v>
       </c>
       <c r="S3">
-        <v>0.02375482506688509</v>
+        <v>0.02580636677324839</v>
       </c>
       <c r="T3">
-        <v>0.02375482506688509</v>
+        <v>0.02580636677324839</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H4">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.325049289700625</v>
+        <v>0.3834526666666667</v>
       </c>
       <c r="N4">
-        <v>0.325049289700625</v>
+        <v>1.150358</v>
       </c>
       <c r="O4">
-        <v>0.07006759189597024</v>
+        <v>0.06716569454631315</v>
       </c>
       <c r="P4">
-        <v>0.07006759189597024</v>
+        <v>0.06716569454631315</v>
       </c>
       <c r="Q4">
-        <v>25.17936799199159</v>
+        <v>40.98288021725578</v>
       </c>
       <c r="R4">
-        <v>25.17936799199159</v>
+        <v>368.845921955302</v>
       </c>
       <c r="S4">
-        <v>0.008314731307456018</v>
+        <v>0.01013361276598797</v>
       </c>
       <c r="T4">
-        <v>0.008314731307456018</v>
+        <v>0.01013361276598797</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H5">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I5">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J5">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.180089252780537</v>
+        <v>0.1954433333333333</v>
       </c>
       <c r="N5">
-        <v>0.180089252780537</v>
+        <v>0.58633</v>
       </c>
       <c r="O5">
-        <v>0.03882002105064938</v>
+        <v>0.03423391820923555</v>
       </c>
       <c r="P5">
-        <v>0.03882002105064938</v>
+        <v>0.03423391820923555</v>
       </c>
       <c r="Q5">
-        <v>13.95029526549744</v>
+        <v>20.88870782641889</v>
       </c>
       <c r="R5">
-        <v>13.95029526549744</v>
+        <v>187.99837043777</v>
       </c>
       <c r="S5">
-        <v>0.00460666672925147</v>
+        <v>0.005165036599981679</v>
       </c>
       <c r="T5">
-        <v>0.00460666672925147</v>
+        <v>0.005165036599981679</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H6">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I6">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J6">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.78801868037107</v>
+        <v>0.8385983333333332</v>
       </c>
       <c r="N6">
-        <v>0.78801868037107</v>
+        <v>2.515795</v>
       </c>
       <c r="O6">
-        <v>0.1698652267583619</v>
+        <v>0.1468891584281953</v>
       </c>
       <c r="P6">
-        <v>0.1698652267583619</v>
+        <v>0.1468891584281953</v>
       </c>
       <c r="Q6">
-        <v>61.04247253055487</v>
+        <v>89.62820716348386</v>
       </c>
       <c r="R6">
-        <v>61.04247253055487</v>
+        <v>806.6538644713548</v>
       </c>
       <c r="S6">
-        <v>0.0201574462709214</v>
+        <v>0.02216187684930143</v>
       </c>
       <c r="T6">
-        <v>0.0201574462709214</v>
+        <v>0.02216187684930143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H7">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I7">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J7">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.10106662444623</v>
+        <v>2.502190666666667</v>
       </c>
       <c r="N7">
-        <v>2.10106662444623</v>
+        <v>7.506572</v>
       </c>
       <c r="O7">
-        <v>0.4529057083112867</v>
+        <v>0.4382845358070331</v>
       </c>
       <c r="P7">
-        <v>0.4529057083112867</v>
+        <v>0.4382845358070331</v>
       </c>
       <c r="Q7">
-        <v>162.7554078378332</v>
+        <v>267.4306095304298</v>
       </c>
       <c r="R7">
-        <v>162.7554078378332</v>
+        <v>2406.875485773868</v>
       </c>
       <c r="S7">
-        <v>0.05374509342082839</v>
+        <v>0.06612610495863706</v>
       </c>
       <c r="T7">
-        <v>0.05374509342082839</v>
+        <v>0.06612610495863706</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H8">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J8">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.316206285600684</v>
+        <v>0.8128656666666666</v>
       </c>
       <c r="N8">
-        <v>0.316206285600684</v>
+        <v>2.438597</v>
       </c>
       <c r="O8">
-        <v>0.06816139482973536</v>
+        <v>0.1423818161159879</v>
       </c>
       <c r="P8">
-        <v>0.06816139482973536</v>
+        <v>0.1423818161159879</v>
       </c>
       <c r="Q8">
-        <v>24.3384564781224</v>
+        <v>62.77999144301032</v>
       </c>
       <c r="R8">
-        <v>24.3384564781224</v>
+        <v>565.019922987093</v>
       </c>
       <c r="S8">
-        <v>0.008037045493682128</v>
+        <v>0.01552326530890425</v>
       </c>
       <c r="T8">
-        <v>0.008037045493682128</v>
+        <v>0.01552326530890425</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H9">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J9">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.928651658055331</v>
+        <v>0.9765046666666667</v>
       </c>
       <c r="N9">
-        <v>0.928651658055331</v>
+        <v>2.929514</v>
       </c>
       <c r="O9">
-        <v>0.2001800571539964</v>
+        <v>0.171044876893235</v>
       </c>
       <c r="P9">
-        <v>0.2001800571539964</v>
+        <v>0.171044876893235</v>
       </c>
       <c r="Q9">
-        <v>71.4784904417061</v>
+        <v>75.41830972980733</v>
       </c>
       <c r="R9">
-        <v>71.4784904417061</v>
+        <v>678.764787568266</v>
       </c>
       <c r="S9">
-        <v>0.02360362827511703</v>
+        <v>0.01864827318665172</v>
       </c>
       <c r="T9">
-        <v>0.02360362827511703</v>
+        <v>0.01864827318665172</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H10">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I10">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J10">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.325049289700625</v>
+        <v>0.3834526666666667</v>
       </c>
       <c r="N10">
-        <v>0.325049289700625</v>
+        <v>1.150358</v>
       </c>
       <c r="O10">
-        <v>0.07006759189597024</v>
+        <v>0.06716569454631315</v>
       </c>
       <c r="P10">
-        <v>0.07006759189597024</v>
+        <v>0.06716569454631315</v>
       </c>
       <c r="Q10">
-        <v>25.01910414460828</v>
+        <v>29.61517027881133</v>
       </c>
       <c r="R10">
-        <v>25.01910414460828</v>
+        <v>266.536532509302</v>
       </c>
       <c r="S10">
-        <v>0.008261808977168966</v>
+        <v>0.007322781268992159</v>
       </c>
       <c r="T10">
-        <v>0.008261808977168966</v>
+        <v>0.00732278126899216</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H11">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I11">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J11">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.180089252780537</v>
+        <v>0.1954433333333333</v>
       </c>
       <c r="N11">
-        <v>0.180089252780537</v>
+        <v>0.58633</v>
       </c>
       <c r="O11">
-        <v>0.03882002105064938</v>
+        <v>0.03423391820923555</v>
       </c>
       <c r="P11">
-        <v>0.03882002105064938</v>
+        <v>0.03423391820923555</v>
       </c>
       <c r="Q11">
-        <v>13.86150320399324</v>
+        <v>15.09465991419667</v>
       </c>
       <c r="R11">
-        <v>13.86150320399324</v>
+        <v>135.85193922777</v>
       </c>
       <c r="S11">
-        <v>0.004577345813258767</v>
+        <v>0.003732374044817502</v>
       </c>
       <c r="T11">
-        <v>0.004577345813258767</v>
+        <v>0.003732374044817503</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H12">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I12">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J12">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.78801868037107</v>
+        <v>0.8385983333333332</v>
       </c>
       <c r="N12">
-        <v>0.78801868037107</v>
+        <v>2.515795</v>
       </c>
       <c r="O12">
-        <v>0.1698652267583619</v>
+        <v>0.1468891584281953</v>
       </c>
       <c r="P12">
-        <v>0.1698652267583619</v>
+        <v>0.1468891584281953</v>
       </c>
       <c r="Q12">
-        <v>60.65394405340452</v>
+        <v>64.76740050626165</v>
       </c>
       <c r="R12">
-        <v>60.65394405340452</v>
+        <v>582.906604556355</v>
       </c>
       <c r="S12">
-        <v>0.02002914639088359</v>
+        <v>0.01601468108417043</v>
       </c>
       <c r="T12">
-        <v>0.02002914639088359</v>
+        <v>0.01601468108417043</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H13">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I13">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J13">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.10106662444623</v>
+        <v>2.502190666666667</v>
       </c>
       <c r="N13">
-        <v>2.10106662444623</v>
+        <v>7.506572</v>
       </c>
       <c r="O13">
-        <v>0.4529057083112867</v>
+        <v>0.4382845358070331</v>
       </c>
       <c r="P13">
-        <v>0.4529057083112867</v>
+        <v>0.4382845358070331</v>
       </c>
       <c r="Q13">
-        <v>161.7194879588741</v>
+        <v>193.2514990899853</v>
       </c>
       <c r="R13">
-        <v>161.7194879588741</v>
+        <v>1739.263491809868</v>
       </c>
       <c r="S13">
-        <v>0.0534030119415658</v>
+        <v>0.04778424180641245</v>
       </c>
       <c r="T13">
-        <v>0.0534030119415658</v>
+        <v>0.04778424180641245</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H14">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I14">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J14">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.316206285600684</v>
+        <v>0.8128656666666666</v>
       </c>
       <c r="N14">
-        <v>0.316206285600684</v>
+        <v>2.438597</v>
       </c>
       <c r="O14">
-        <v>0.06816139482973536</v>
+        <v>0.1423818161159879</v>
       </c>
       <c r="P14">
-        <v>0.06816139482973536</v>
+        <v>0.1423818161159879</v>
       </c>
       <c r="Q14">
-        <v>38.48593821122031</v>
+        <v>111.099501793063</v>
       </c>
       <c r="R14">
-        <v>38.48593821122031</v>
+        <v>999.8955161375669</v>
       </c>
       <c r="S14">
-        <v>0.01270882714146871</v>
+        <v>0.02747096650349756</v>
       </c>
       <c r="T14">
-        <v>0.01270882714146871</v>
+        <v>0.02747096650349755</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H15">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I15">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J15">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.928651658055331</v>
+        <v>0.9765046666666667</v>
       </c>
       <c r="N15">
-        <v>0.928651658055331</v>
+        <v>2.929514</v>
       </c>
       <c r="O15">
-        <v>0.2001800571539964</v>
+        <v>0.171044876893235</v>
       </c>
       <c r="P15">
-        <v>0.2001800571539964</v>
+        <v>0.171044876893235</v>
       </c>
       <c r="Q15">
-        <v>113.0275771203311</v>
+        <v>133.465080903406</v>
       </c>
       <c r="R15">
-        <v>113.0275771203311</v>
+        <v>1201.185728130654</v>
       </c>
       <c r="S15">
-        <v>0.03732396835326535</v>
+        <v>0.0330011809928115</v>
       </c>
       <c r="T15">
-        <v>0.03732396835326535</v>
+        <v>0.0330011809928115</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H16">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I16">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J16">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.325049289700625</v>
+        <v>0.3834526666666667</v>
       </c>
       <c r="N16">
-        <v>0.325049289700625</v>
+        <v>1.150358</v>
       </c>
       <c r="O16">
-        <v>0.07006759189597024</v>
+        <v>0.06716569454631315</v>
       </c>
       <c r="P16">
-        <v>0.07006759189597024</v>
+        <v>0.06716569454631315</v>
       </c>
       <c r="Q16">
-        <v>39.56223341751384</v>
+        <v>52.408905892882</v>
       </c>
       <c r="R16">
-        <v>39.56223341751384</v>
+        <v>471.680153035938</v>
       </c>
       <c r="S16">
-        <v>0.01306424136197973</v>
+        <v>0.01295886367654452</v>
       </c>
       <c r="T16">
-        <v>0.01306424136197973</v>
+        <v>0.01295886367654452</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H17">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I17">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J17">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.180089252780537</v>
+        <v>0.1954433333333333</v>
       </c>
       <c r="N17">
-        <v>0.180089252780537</v>
+        <v>0.58633</v>
       </c>
       <c r="O17">
-        <v>0.03882002105064938</v>
+        <v>0.03423391820923555</v>
       </c>
       <c r="P17">
-        <v>0.03882002105064938</v>
+        <v>0.03423391820923555</v>
       </c>
       <c r="Q17">
-        <v>21.91893131362089</v>
+        <v>26.71247889107</v>
       </c>
       <c r="R17">
-        <v>21.91893131362089</v>
+        <v>240.41231001963</v>
       </c>
       <c r="S17">
-        <v>0.007238069854545479</v>
+        <v>0.006605048636570833</v>
       </c>
       <c r="T17">
-        <v>0.007238069854545479</v>
+        <v>0.006605048636570833</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H18">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I18">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J18">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.78801868037107</v>
+        <v>0.8385983333333332</v>
       </c>
       <c r="N18">
-        <v>0.78801868037107</v>
+        <v>2.515795</v>
       </c>
       <c r="O18">
-        <v>0.1698652267583619</v>
+        <v>0.1468891584281953</v>
       </c>
       <c r="P18">
-        <v>0.1698652267583619</v>
+        <v>0.1468891584281953</v>
       </c>
       <c r="Q18">
-        <v>95.9109278439428</v>
+        <v>114.616548414305</v>
       </c>
       <c r="R18">
-        <v>95.9109278439428</v>
+        <v>1031.548935728745</v>
       </c>
       <c r="S18">
-        <v>0.03167170815108727</v>
+        <v>0.02834060739624737</v>
       </c>
       <c r="T18">
-        <v>0.03167170815108727</v>
+        <v>0.02834060739624737</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H19">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I19">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J19">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.10106662444623</v>
+        <v>2.502190666666667</v>
       </c>
       <c r="N19">
-        <v>2.10106662444623</v>
+        <v>7.506572</v>
       </c>
       <c r="O19">
-        <v>0.4529057083112867</v>
+        <v>0.4382845358070331</v>
       </c>
       <c r="P19">
-        <v>0.4529057083112867</v>
+        <v>0.4382845358070331</v>
       </c>
       <c r="Q19">
-        <v>255.7239497389673</v>
+        <v>341.9902547955881</v>
       </c>
       <c r="R19">
-        <v>255.7239497389673</v>
+        <v>3077.912293160292</v>
       </c>
       <c r="S19">
-        <v>0.08444516683807042</v>
+        <v>0.08456206087684547</v>
       </c>
       <c r="T19">
-        <v>0.08444516683807042</v>
+        <v>0.08456206087684545</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H20">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I20">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J20">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.316206285600684</v>
+        <v>0.8128656666666666</v>
       </c>
       <c r="N20">
-        <v>0.316206285600684</v>
+        <v>2.438597</v>
       </c>
       <c r="O20">
-        <v>0.06816139482973536</v>
+        <v>0.1423818161159879</v>
       </c>
       <c r="P20">
-        <v>0.06816139482973536</v>
+        <v>0.1423818161159879</v>
       </c>
       <c r="Q20">
-        <v>44.38485396443073</v>
+        <v>116.6102283911258</v>
       </c>
       <c r="R20">
-        <v>44.38485396443073</v>
+        <v>1049.492055520132</v>
       </c>
       <c r="S20">
-        <v>0.01465676719734558</v>
+        <v>0.02883357374603307</v>
       </c>
       <c r="T20">
-        <v>0.01465676719734558</v>
+        <v>0.02883357374603307</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H21">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I21">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J21">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.928651658055331</v>
+        <v>0.9765046666666667</v>
       </c>
       <c r="N21">
-        <v>0.928651658055331</v>
+        <v>2.929514</v>
       </c>
       <c r="O21">
-        <v>0.2001800571539964</v>
+        <v>0.171044876893235</v>
       </c>
       <c r="P21">
-        <v>0.2001800571539964</v>
+        <v>0.171044876893235</v>
       </c>
       <c r="Q21">
-        <v>130.3518307623521</v>
+        <v>140.0851787380204</v>
       </c>
       <c r="R21">
-        <v>130.3518307623521</v>
+        <v>1260.766608642184</v>
       </c>
       <c r="S21">
-        <v>0.043044783672436</v>
+        <v>0.03463809639683652</v>
       </c>
       <c r="T21">
-        <v>0.043044783672436</v>
+        <v>0.03463809639683652</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H22">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I22">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J22">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.325049289700625</v>
+        <v>0.3834526666666667</v>
       </c>
       <c r="N22">
-        <v>0.325049289700625</v>
+        <v>1.150358</v>
       </c>
       <c r="O22">
-        <v>0.07006759189597024</v>
+        <v>0.06716569454631315</v>
       </c>
       <c r="P22">
-        <v>0.07006759189597024</v>
+        <v>0.06716569454631315</v>
       </c>
       <c r="Q22">
-        <v>45.62611785909727</v>
+        <v>55.00847787131644</v>
       </c>
       <c r="R22">
-        <v>45.62611785909727</v>
+        <v>495.076300841848</v>
       </c>
       <c r="S22">
-        <v>0.01506665738081171</v>
+        <v>0.01360164562957271</v>
       </c>
       <c r="T22">
-        <v>0.01506665738081171</v>
+        <v>0.01360164562957271</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H23">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I23">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J23">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.180089252780537</v>
+        <v>0.1954433333333333</v>
       </c>
       <c r="N23">
-        <v>0.180089252780537</v>
+        <v>0.58633</v>
       </c>
       <c r="O23">
-        <v>0.03882002105064938</v>
+        <v>0.03423391820923555</v>
       </c>
       <c r="P23">
-        <v>0.03882002105064938</v>
+        <v>0.03423391820923555</v>
       </c>
       <c r="Q23">
-        <v>25.27854615553631</v>
+        <v>28.03746384194222</v>
       </c>
       <c r="R23">
-        <v>25.27854615553631</v>
+        <v>252.33717457748</v>
       </c>
       <c r="S23">
-        <v>0.008347481922233304</v>
+        <v>0.006932670422587895</v>
       </c>
       <c r="T23">
-        <v>0.008347481922233304</v>
+        <v>0.006932670422587895</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H24">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I24">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J24">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.78801868037107</v>
+        <v>0.8385983333333332</v>
       </c>
       <c r="N24">
-        <v>0.78801868037107</v>
+        <v>2.515795</v>
       </c>
       <c r="O24">
-        <v>0.1698652267583619</v>
+        <v>0.1468891584281953</v>
       </c>
       <c r="P24">
-        <v>0.1698652267583619</v>
+        <v>0.1468891584281953</v>
       </c>
       <c r="Q24">
-        <v>110.6116343736518</v>
+        <v>120.3017265810022</v>
       </c>
       <c r="R24">
-        <v>110.6116343736518</v>
+        <v>1082.71553922902</v>
       </c>
       <c r="S24">
-        <v>0.03652617570020013</v>
+        <v>0.02974635032455189</v>
       </c>
       <c r="T24">
-        <v>0.03652617570020013</v>
+        <v>0.02974635032455189</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H25">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I25">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J25">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.10106662444623</v>
+        <v>2.502190666666667</v>
       </c>
       <c r="N25">
-        <v>2.10106662444623</v>
+        <v>7.506572</v>
       </c>
       <c r="O25">
-        <v>0.4529057083112867</v>
+        <v>0.4382845358070331</v>
       </c>
       <c r="P25">
-        <v>0.4529057083112867</v>
+        <v>0.4382845358070331</v>
       </c>
       <c r="Q25">
-        <v>294.9199289901264</v>
+        <v>358.9535603276925</v>
       </c>
       <c r="R25">
-        <v>294.9199289901264</v>
+        <v>3230.582042949232</v>
       </c>
       <c r="S25">
-        <v>0.09738846374328522</v>
+        <v>0.08875648470899744</v>
       </c>
       <c r="T25">
-        <v>0.09738846374328522</v>
+        <v>0.08875648470899743</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H26">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I26">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J26">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.316206285600684</v>
+        <v>0.8128656666666666</v>
       </c>
       <c r="N26">
-        <v>0.316206285600684</v>
+        <v>2.438597</v>
       </c>
       <c r="O26">
-        <v>0.06816139482973536</v>
+        <v>0.1423818161159879</v>
       </c>
       <c r="P26">
-        <v>0.06816139482973536</v>
+        <v>0.1423818161159879</v>
       </c>
       <c r="Q26">
-        <v>61.39445227756212</v>
+        <v>161.4336669123671</v>
       </c>
       <c r="R26">
-        <v>61.39445227756212</v>
+        <v>1452.903002211304</v>
       </c>
       <c r="S26">
-        <v>0.02027367702869746</v>
+        <v>0.03991682037014609</v>
       </c>
       <c r="T26">
-        <v>0.02027367702869746</v>
+        <v>0.03991682037014607</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H27">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I27">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J27">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.928651658055331</v>
+        <v>0.9765046666666667</v>
       </c>
       <c r="N27">
-        <v>0.928651658055331</v>
+        <v>2.929514</v>
       </c>
       <c r="O27">
-        <v>0.2001800571539964</v>
+        <v>0.171044876893235</v>
       </c>
       <c r="P27">
-        <v>0.2001800571539964</v>
+        <v>0.171044876893235</v>
       </c>
       <c r="Q27">
-        <v>180.3065356359052</v>
+        <v>193.9320795076498</v>
       </c>
       <c r="R27">
-        <v>180.3065356359052</v>
+        <v>1745.388715568848</v>
       </c>
       <c r="S27">
-        <v>0.05954082712749671</v>
+        <v>0.04795252520602139</v>
       </c>
       <c r="T27">
-        <v>0.05954082712749671</v>
+        <v>0.04795252520602138</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H28">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I28">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J28">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.325049289700625</v>
+        <v>0.3834526666666667</v>
       </c>
       <c r="N28">
-        <v>0.325049289700625</v>
+        <v>1.150358</v>
       </c>
       <c r="O28">
-        <v>0.07006759189597024</v>
+        <v>0.06716569454631315</v>
       </c>
       <c r="P28">
-        <v>0.07006759189597024</v>
+        <v>0.06716569454631315</v>
       </c>
       <c r="Q28">
-        <v>63.11140547529116</v>
+        <v>76.15301347536177</v>
       </c>
       <c r="R28">
-        <v>63.11140547529116</v>
+        <v>685.377121278256</v>
       </c>
       <c r="S28">
-        <v>0.02084064934155039</v>
+        <v>0.01882993936569286</v>
       </c>
       <c r="T28">
-        <v>0.02084064934155039</v>
+        <v>0.01882993936569286</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H29">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I29">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J29">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.180089252780537</v>
+        <v>0.1954433333333333</v>
       </c>
       <c r="N29">
-        <v>0.180089252780537</v>
+        <v>0.58633</v>
       </c>
       <c r="O29">
-        <v>0.03882002105064938</v>
+        <v>0.03423391820923555</v>
       </c>
       <c r="P29">
-        <v>0.03882002105064938</v>
+        <v>0.03423391820923555</v>
       </c>
       <c r="Q29">
-        <v>34.96603811822703</v>
+        <v>38.81469628672889</v>
       </c>
       <c r="R29">
-        <v>34.96603811822703</v>
+        <v>349.33226658056</v>
       </c>
       <c r="S29">
-        <v>0.01154648567556548</v>
+        <v>0.009597497777462924</v>
       </c>
       <c r="T29">
-        <v>0.01154648567556548</v>
+        <v>0.009597497777462924</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H30">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I30">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J30">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.78801868037107</v>
+        <v>0.8385983333333332</v>
       </c>
       <c r="N30">
-        <v>0.78801868037107</v>
+        <v>2.515795</v>
       </c>
       <c r="O30">
-        <v>0.1698652267583619</v>
+        <v>0.1468891584281953</v>
       </c>
       <c r="P30">
-        <v>0.1698652267583619</v>
+        <v>0.1468891584281953</v>
       </c>
       <c r="Q30">
-        <v>153.0013079087397</v>
+        <v>166.5441284680489</v>
       </c>
       <c r="R30">
-        <v>153.0013079087397</v>
+        <v>1498.89715621244</v>
       </c>
       <c r="S30">
-        <v>0.05052409438374837</v>
+        <v>0.04118045626362685</v>
       </c>
       <c r="T30">
-        <v>0.05052409438374837</v>
+        <v>0.04118045626362685</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H31">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I31">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J31">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.10106662444623</v>
+        <v>2.502190666666667</v>
       </c>
       <c r="N31">
-        <v>2.10106662444623</v>
+        <v>7.506572</v>
       </c>
       <c r="O31">
-        <v>0.4529057083112867</v>
+        <v>0.4382845358070331</v>
       </c>
       <c r="P31">
-        <v>0.4529057083112867</v>
+        <v>0.4382845358070331</v>
       </c>
       <c r="Q31">
-        <v>407.9420317704892</v>
+        <v>496.9305891468338</v>
       </c>
       <c r="R31">
-        <v>407.9420317704892</v>
+        <v>4472.375302321504</v>
       </c>
       <c r="S31">
-        <v>0.1347106243599173</v>
+        <v>0.1228733103992043</v>
       </c>
       <c r="T31">
-        <v>0.1347106243599173</v>
+        <v>0.1228733103992042</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H32">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I32">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J32">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.316206285600684</v>
+        <v>0.8128656666666666</v>
       </c>
       <c r="N32">
-        <v>0.316206285600684</v>
+        <v>2.438597</v>
       </c>
       <c r="O32">
-        <v>0.06816139482973536</v>
+        <v>0.1423818161159879</v>
       </c>
       <c r="P32">
-        <v>0.06816139482973536</v>
+        <v>0.1423818161159879</v>
       </c>
       <c r="Q32">
-        <v>13.31400183648236</v>
+        <v>37.02657113042456</v>
       </c>
       <c r="R32">
-        <v>13.31400183648236</v>
+        <v>333.2391401738209</v>
       </c>
       <c r="S32">
-        <v>0.00439654990278295</v>
+        <v>0.009155357844518914</v>
       </c>
       <c r="T32">
-        <v>0.00439654990278295</v>
+        <v>0.009155357844518913</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H33">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I33">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J33">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.928651658055331</v>
+        <v>0.9765046666666667</v>
       </c>
       <c r="N33">
-        <v>0.928651658055331</v>
+        <v>2.929514</v>
       </c>
       <c r="O33">
-        <v>0.2001800571539964</v>
+        <v>0.171044876893235</v>
       </c>
       <c r="P33">
-        <v>0.2001800571539964</v>
+        <v>0.171044876893235</v>
       </c>
       <c r="Q33">
-        <v>39.10127800689842</v>
+        <v>44.48043629126689</v>
       </c>
       <c r="R33">
-        <v>39.10127800689842</v>
+        <v>400.3239266214021</v>
       </c>
       <c r="S33">
-        <v>0.01291202465879622</v>
+        <v>0.01099843433766546</v>
       </c>
       <c r="T33">
-        <v>0.01291202465879622</v>
+        <v>0.01099843433766546</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H34">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I34">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J34">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.325049289700625</v>
+        <v>0.3834526666666667</v>
       </c>
       <c r="N34">
-        <v>0.325049289700625</v>
+        <v>1.150358</v>
       </c>
       <c r="O34">
-        <v>0.07006759189597024</v>
+        <v>0.06716569454631315</v>
       </c>
       <c r="P34">
-        <v>0.07006759189597024</v>
+        <v>0.06716569454631315</v>
       </c>
       <c r="Q34">
-        <v>13.68634033254665</v>
+        <v>17.46652370705489</v>
       </c>
       <c r="R34">
-        <v>13.68634033254665</v>
+        <v>157.198713363494</v>
       </c>
       <c r="S34">
-        <v>0.004519503527003445</v>
+        <v>0.004318851839522927</v>
       </c>
       <c r="T34">
-        <v>0.004519503527003445</v>
+        <v>0.004318851839522927</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H35">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I35">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J35">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.180089252780537</v>
+        <v>0.1954433333333333</v>
       </c>
       <c r="N35">
-        <v>0.180089252780537</v>
+        <v>0.58633</v>
       </c>
       <c r="O35">
-        <v>0.03882002105064938</v>
+        <v>0.03423391820923555</v>
       </c>
       <c r="P35">
-        <v>0.03882002105064938</v>
+        <v>0.03423391820923555</v>
       </c>
       <c r="Q35">
-        <v>7.582735547764263</v>
+        <v>8.902573672854444</v>
       </c>
       <c r="R35">
-        <v>7.582735547764263</v>
+        <v>80.12316305569</v>
       </c>
       <c r="S35">
-        <v>0.002503971055794887</v>
+        <v>0.002201290727814713</v>
       </c>
       <c r="T35">
-        <v>0.002503971055794887</v>
+        <v>0.002201290727814713</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H36">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I36">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J36">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.78801868037107</v>
+        <v>0.8385983333333332</v>
       </c>
       <c r="N36">
-        <v>0.78801868037107</v>
+        <v>2.515795</v>
       </c>
       <c r="O36">
-        <v>0.1698652267583619</v>
+        <v>0.1468891584281953</v>
       </c>
       <c r="P36">
-        <v>0.1698652267583619</v>
+        <v>0.1468891584281953</v>
       </c>
       <c r="Q36">
-        <v>33.17986591478476</v>
+        <v>38.19871119215944</v>
       </c>
       <c r="R36">
-        <v>33.17986591478476</v>
+        <v>343.788400729435</v>
       </c>
       <c r="S36">
-        <v>0.01095665586152119</v>
+        <v>0.009445186510297299</v>
       </c>
       <c r="T36">
-        <v>0.01095665586152119</v>
+        <v>0.009445186510297299</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H37">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I37">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J37">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.10106662444623</v>
+        <v>2.502190666666667</v>
       </c>
       <c r="N37">
-        <v>2.10106662444623</v>
+        <v>7.506572</v>
       </c>
       <c r="O37">
-        <v>0.4529057083112867</v>
+        <v>0.4382845358070331</v>
       </c>
       <c r="P37">
-        <v>0.4529057083112867</v>
+        <v>0.4382845358070331</v>
       </c>
       <c r="Q37">
-        <v>88.46631509335306</v>
+        <v>113.9764471553329</v>
       </c>
       <c r="R37">
-        <v>88.46631509335306</v>
+        <v>1025.788024397996</v>
       </c>
       <c r="S37">
-        <v>0.02921334800761972</v>
+        <v>0.02818233305693645</v>
       </c>
       <c r="T37">
-        <v>0.02921334800761972</v>
+        <v>0.02818233305693645</v>
       </c>
     </row>
   </sheetData>
